--- a/Output/AllModels_sensitivityOtherCovariates_12000.xlsx
+++ b/Output/AllModels_sensitivityOtherCovariates_12000.xlsx
@@ -1,1447 +1,1454 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kueng\DataAnalysis\02TimeAndTiesControl_updatedBRMS\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477B1490-9B7A-425A-9566-0120E3EE3128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-19303" yWindow="3369" windowWidth="19406" windowHeight="11485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="474">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mood Gaussian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactance Ordinal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactance Dichotome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.44***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[25.53, 38.82]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.33***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[91.00, 131.58]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 3.23,  3.89]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.21,   1.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.13,  0.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditional Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.97,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.99,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.04,  0.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.72,    1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.69,   1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.03,  0.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.83,    1.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.85,   1.56]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.82,  1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.89,   1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.14,  0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.15,    2.66]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.01,   4.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.87,  1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.92,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.15,  0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.70,    2.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.59,   3.96]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.92,  1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.06,  0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.00,    1.57]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.06,   1.82]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.90,  1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.00,  0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.73,    1.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.63,   1.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.24,  1.48]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.02,   1.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.04,  0.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.46,    1.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.44,   1.57]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,  1.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.10,  0.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.52,    1.44]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.47,   1.49]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.81,  1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,   1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.09,  0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.68,    4.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.74,   5.96]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily support received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily support provided (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is a Weekend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.11,  1.29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.02,   1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.08,  0.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.64*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.42,    0.97]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.38,   1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JITAI received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.85,  1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,   0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.10*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.19, -0.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.76,    2.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.75,   2.61]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Days post skilled support intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.94,  1.20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,   1.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.07,  0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.41,    1.57]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.33,   1.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditional Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.79,  1.44]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.81,   1.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.15,  0.93]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.38,    2.50]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.53,   6.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.75,  1.38]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.71,   1.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.27,  0.81]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.45,    3.75]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48,   6.69]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.82,  1.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,   1.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.80,  0.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.31,   10.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.94**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2.61, 174.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.66,  1.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,   1.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.81,  0.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.40,    3.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.27,  23.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.72,  1.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.63,   1.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.68,  0.86]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.40,    6.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.15,   7.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,  1.87]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,   1.86]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.51,  1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.02,    0.58]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01,   0.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean support received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean support provided (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference study group 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.82,  1.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,   1.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.65,  0.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.53,    2.45]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.43,   3.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference study group 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.95,  1.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,   1.32]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.10,  0.81]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.16,    0.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12,   1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.39,  1.84]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.18,  1.54]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.69,  1.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.06,  2.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.70,  1.29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.03,  1.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Own actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.34***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 8.43, 12.73]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Partner actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.01,  1.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.50,  1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily support received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily support provided (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Is a Weekend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.29,  1.89]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu JITAI received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.38,  0.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Days post skilled support intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.94,  1.73]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.70,  2.97]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.65,  2.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.17,  0.88]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.23,  1.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.39,  3.43]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.65,  5.75]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean support received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean support provided (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Difference study group 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.42,  1.45]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Difference study group 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.57,  1.95]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.22, 0.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.44, 0.74]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.22, 1.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.63, 1.70]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hurdle Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.57, 1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.08, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.43]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.52]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.53]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.14, 0.98]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.21]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.10, 1.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.14, 2.44]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.27]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 1.55]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 2.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.55]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.63]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.38]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.69]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.95]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.31, 0.97]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.56]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.65, 0.70]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.56, 0.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.94, 0.98]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="474">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t>Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t>Mood Gaussian</t>
+  </si>
+  <si>
+    <t>Reactance Ordinal</t>
+  </si>
+  <si>
+    <t>Reactance Dichotome</t>
+  </si>
+  <si>
+    <t>exp(Est.)</t>
+  </si>
+  <si>
+    <t>95% CI</t>
+  </si>
+  <si>
+    <t>pd</t>
+  </si>
+  <si>
+    <t>Est.</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>31.44***</t>
+  </si>
+  <si>
+    <t>[25.53, 38.82]</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>109.33***</t>
+  </si>
+  <si>
+    <t>[91.00, 131.58]</t>
+  </si>
+  <si>
+    <t>3.57***</t>
+  </si>
+  <si>
+    <t>[ 3.23,  3.89]</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>[0.21,   1.33]</t>
+  </si>
+  <si>
+    <t>0.909</t>
+  </si>
+  <si>
+    <t>Hurdle Intercept</t>
+  </si>
+  <si>
+    <t>0.22***</t>
+  </si>
+  <si>
+    <t>[ 0.13,  0.37]</t>
+  </si>
+  <si>
+    <t>Conditional Within-Person Effects</t>
+  </si>
+  <si>
+    <t>Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>[ 0.97,  1.08]</t>
+  </si>
+  <si>
+    <t>0.838</t>
+  </si>
+  <si>
+    <t>[ 0.99,   1.06]</t>
+  </si>
+  <si>
+    <t>0.948</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>[-0.04,  0.04]</t>
+  </si>
+  <si>
+    <t>0.501</t>
+  </si>
+  <si>
+    <t>0.85*</t>
+  </si>
+  <si>
+    <t>[  0.72,    1.00]</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>[0.69,   1.02]</t>
+  </si>
+  <si>
+    <t>0.962</t>
+  </si>
+  <si>
+    <t>Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.98,  1.08]</t>
+  </si>
+  <si>
+    <t>0.880</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>[ 0.98,   1.05]</t>
+  </si>
+  <si>
+    <t>0.835</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>[-0.03,  0.06]</t>
+  </si>
+  <si>
+    <t>0.769</t>
+  </si>
+  <si>
+    <t>[  0.83,    1.24]</t>
+  </si>
+  <si>
+    <t>0.580</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>[0.85,   1.56]</t>
+  </si>
+  <si>
+    <t>0.803</t>
+  </si>
+  <si>
+    <t>Daily pressure experienced</t>
+  </si>
+  <si>
+    <t>0.91*</t>
+  </si>
+  <si>
+    <t>[ 0.82,  1.00]</t>
+  </si>
+  <si>
+    <t>0.976</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>[ 0.89,   1.02]</t>
+  </si>
+  <si>
+    <t>0.940</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>[-0.14,  0.07]</t>
+  </si>
+  <si>
+    <t>0.711</t>
+  </si>
+  <si>
+    <t>1.83*</t>
+  </si>
+  <si>
+    <t>[  1.15,    2.66]</t>
+  </si>
+  <si>
+    <t>0.992</t>
+  </si>
+  <si>
+    <t>1.96*</t>
+  </si>
+  <si>
+    <t>[1.01,   4.39]</t>
+  </si>
+  <si>
+    <t>Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.87,  1.03]</t>
+  </si>
+  <si>
+    <t>0.881</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>[ 0.92,   1.05]</t>
+  </si>
+  <si>
+    <t>0.690</t>
+  </si>
+  <si>
+    <t>[-0.15,  0.08]</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>[  0.70,    2.09]</t>
+  </si>
+  <si>
+    <t>0.814</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>[0.59,   3.96]</t>
+  </si>
+  <si>
+    <t>0.806</t>
+  </si>
+  <si>
+    <t>Daily pushing experienced</t>
+  </si>
+  <si>
+    <t>[ 0.92,  1.04]</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>[ 0.96,   1.06]</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>[-0.06,  0.07]</t>
+  </si>
+  <si>
+    <t>0.554</t>
+  </si>
+  <si>
+    <t>1.25*</t>
+  </si>
+  <si>
+    <t>[  1.00,    1.57]</t>
+  </si>
+  <si>
+    <t>1.37*</t>
+  </si>
+  <si>
+    <t>[1.06,   1.82]</t>
+  </si>
+  <si>
+    <t>0.991</t>
+  </si>
+  <si>
+    <t>Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>[ 0.90,  1.01]</t>
+  </si>
+  <si>
+    <t>0.923</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>[ 0.96,   1.04]</t>
+  </si>
+  <si>
+    <t>0.549</t>
+  </si>
+  <si>
+    <t>0.07*</t>
+  </si>
+  <si>
+    <t>[ 0.00,  0.13]</t>
+  </si>
+  <si>
+    <t>[  0.73,    1.25]</t>
+  </si>
+  <si>
+    <t>0.622</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>[0.63,   1.37]</t>
+  </si>
+  <si>
+    <t>0.646</t>
+  </si>
+  <si>
+    <t>Own actionplan</t>
+  </si>
+  <si>
+    <t>1.36***</t>
+  </si>
+  <si>
+    <t>[ 1.24,  1.48]</t>
+  </si>
+  <si>
+    <t>1.07**</t>
+  </si>
+  <si>
+    <t>[ 1.02,   1.13]</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>0.12**</t>
+  </si>
+  <si>
+    <t>[ 0.04,  0.19]</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>[  0.46,    1.46]</t>
+  </si>
+  <si>
+    <t>0.746</t>
+  </si>
+  <si>
+    <t>[0.44,   1.57]</t>
+  </si>
+  <si>
+    <t>0.708</t>
+  </si>
+  <si>
+    <t>Partner actionplan</t>
+  </si>
+  <si>
+    <t>1.09*</t>
+  </si>
+  <si>
+    <t>[ 1.00,  1.19]</t>
+  </si>
+  <si>
+    <t>0.978</t>
+  </si>
+  <si>
+    <t>1.05*</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.11]</t>
+  </si>
+  <si>
+    <t>0.983</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>[-0.10,  0.06]</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>[  0.52,    1.44]</t>
+  </si>
+  <si>
+    <t>0.713</t>
+  </si>
+  <si>
+    <t>[0.47,   1.49]</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>[ 0.81,  1.12]</t>
+  </si>
+  <si>
+    <t>0.735</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>[ 0.86,   1.03]</t>
+  </si>
+  <si>
+    <t>0.903</t>
+  </si>
+  <si>
+    <t>0.24**</t>
+  </si>
+  <si>
+    <t>[ 0.09,  0.39]</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>[  0.68,    4.01]</t>
+  </si>
+  <si>
+    <t>0.867</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>[0.74,   5.96]</t>
+  </si>
+  <si>
+    <t>0.918</t>
+  </si>
+  <si>
+    <t>Daily weartime</t>
+  </si>
+  <si>
+    <t>1.00***</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.00]</t>
+  </si>
+  <si>
+    <t>Daily support received</t>
+  </si>
+  <si>
+    <t>Daily support provided (partner's view)</t>
+  </si>
+  <si>
+    <t>Is a Weekend</t>
+  </si>
+  <si>
+    <t>1.20***</t>
+  </si>
+  <si>
+    <t>[ 1.11,  1.29]</t>
+  </si>
+  <si>
+    <t>[ 1.02,   1.12]</t>
+  </si>
+  <si>
+    <t>0.15***</t>
+  </si>
+  <si>
+    <t>[ 0.08,  0.22]</t>
+  </si>
+  <si>
+    <t>0.64*</t>
+  </si>
+  <si>
+    <t>[  0.42,    0.97]</t>
+  </si>
+  <si>
+    <t>0.982</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>[0.38,   1.02]</t>
+  </si>
+  <si>
+    <t>0.969</t>
+  </si>
+  <si>
+    <t>JITAI received</t>
+  </si>
+  <si>
+    <t>[ 0.85,  1.04]</t>
+  </si>
+  <si>
+    <t>0.885</t>
+  </si>
+  <si>
+    <t>0.93*</t>
+  </si>
+  <si>
+    <t>[ 0.88,   0.99]</t>
+  </si>
+  <si>
+    <t>-0.10*</t>
+  </si>
+  <si>
+    <t>[-0.19, -0.01]</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>[  0.76,    2.16]</t>
+  </si>
+  <si>
+    <t>0.826</t>
+  </si>
+  <si>
+    <t>[0.75,   2.61]</t>
+  </si>
+  <si>
+    <t>0.861</t>
+  </si>
+  <si>
+    <t>Days post skilled support intervention</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>[ 0.94,  1.20]</t>
+  </si>
+  <si>
+    <t>0.845</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>[ 0.98,   1.13]</t>
+  </si>
+  <si>
+    <t>0.912</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>[-0.07,  0.15]</t>
+  </si>
+  <si>
+    <t>0.763</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>[  0.41,    1.57]</t>
+  </si>
+  <si>
+    <t>0.737</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>[0.33,   1.47]</t>
+  </si>
+  <si>
+    <t>0.821</t>
+  </si>
+  <si>
+    <t>Conditional Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t>[ 0.79,  1.44]</t>
+  </si>
+  <si>
+    <t>0.659</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>[ 0.81,   1.47]</t>
+  </si>
+  <si>
+    <t>0.733</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>[-0.15,  0.93]</t>
+  </si>
+  <si>
+    <t>0.922</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>[  0.38,    2.50]</t>
+  </si>
+  <si>
+    <t>0.526</t>
+  </si>
+  <si>
+    <t>1.71</t>
+  </si>
+  <si>
+    <t>[0.53,   6.01]</t>
+  </si>
+  <si>
+    <t>Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.75,  1.38]</t>
+  </si>
+  <si>
+    <t>[ 0.71,   1.31]</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>[-0.27,  0.81]</t>
+  </si>
+  <si>
+    <t>0.839</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>[  0.45,    3.75]</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>[0.48,   6.69]</t>
+  </si>
+  <si>
+    <t>0.800</t>
+  </si>
+  <si>
+    <t>Mean pressure experienced</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>[ 0.82,  1.64]</t>
+  </si>
+  <si>
+    <t>0.792</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>[ 0.74,   1.35]</t>
+  </si>
+  <si>
+    <t>0.513</t>
+  </si>
+  <si>
+    <t>-0.27</t>
+  </si>
+  <si>
+    <t>[-0.80,  0.25]</t>
+  </si>
+  <si>
+    <t>0.850</t>
+  </si>
+  <si>
+    <t>3.56*</t>
+  </si>
+  <si>
+    <t>[  1.31,   10.30]</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>18.94**</t>
+  </si>
+  <si>
+    <t>[2.61, 174.02]</t>
+  </si>
+  <si>
+    <t>Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.66,  1.34]</t>
+  </si>
+  <si>
+    <t>[ 0.74,   1.33]</t>
+  </si>
+  <si>
+    <t>0.519</t>
+  </si>
+  <si>
+    <t>-0.28</t>
+  </si>
+  <si>
+    <t>[-0.81,  0.25]</t>
+  </si>
+  <si>
+    <t>0.860</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>[  0.40,    3.51]</t>
+  </si>
+  <si>
+    <t>0.648</t>
+  </si>
+  <si>
+    <t>2.76</t>
+  </si>
+  <si>
+    <t>[0.27,  23.37]</t>
+  </si>
+  <si>
+    <t>0.809</t>
+  </si>
+  <si>
+    <t>Mean pushing experienced</t>
+  </si>
+  <si>
+    <t>[ 0.72,  1.78]</t>
+  </si>
+  <si>
+    <t>0.710</t>
+  </si>
+  <si>
+    <t>[ 0.63,   1.46]</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>[-0.68,  0.86]</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>[  0.40,    6.72]</t>
+  </si>
+  <si>
+    <t>0.741</t>
+  </si>
+  <si>
+    <t>[0.15,   7.39]</t>
+  </si>
+  <si>
+    <t>Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>[ 0.74,  1.87]</t>
+  </si>
+  <si>
+    <t>0.758</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>[ 0.80,   1.86]</t>
+  </si>
+  <si>
+    <t>0.823</t>
+  </si>
+  <si>
+    <t>[-0.51,  1.02]</t>
+  </si>
+  <si>
+    <t>0.760</t>
+  </si>
+  <si>
+    <t>0.10**</t>
+  </si>
+  <si>
+    <t>[  0.02,    0.58]</t>
+  </si>
+  <si>
+    <t>0.995</t>
+  </si>
+  <si>
+    <t>0.08*</t>
+  </si>
+  <si>
+    <t>[0.01,   0.62]</t>
+  </si>
+  <si>
+    <t>Mean weartime</t>
+  </si>
+  <si>
+    <t>0.925</t>
+  </si>
+  <si>
+    <t>Mean support received</t>
+  </si>
+  <si>
+    <t>Mean support provided (partner's view)</t>
+  </si>
+  <si>
+    <t>Difference study group 2</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>[ 0.82,  1.41]</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>[ 0.73,   1.19]</t>
+  </si>
+  <si>
+    <t>0.729</t>
+  </si>
+  <si>
+    <t>-0.21</t>
+  </si>
+  <si>
+    <t>[-0.65,  0.24]</t>
+  </si>
+  <si>
+    <t>[  0.53,    2.45]</t>
+  </si>
+  <si>
+    <t>0.631</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>[0.43,   3.25]</t>
+  </si>
+  <si>
+    <t>0.638</t>
+  </si>
+  <si>
+    <t>Difference study group 3</t>
+  </si>
+  <si>
+    <t>[ 0.95,  1.59]</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
+    <t>[ 0.80,   1.32]</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>[-0.10,  0.81]</t>
+  </si>
+  <si>
+    <t>0.939</t>
+  </si>
+  <si>
+    <t>0.37*</t>
+  </si>
+  <si>
+    <t>[  0.16,    0.90]</t>
+  </si>
+  <si>
+    <t>0.985</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>[0.12,   1.11]</t>
+  </si>
+  <si>
+    <t>0.961</t>
+  </si>
+  <si>
+    <t>Hurdle Within-Person Effects</t>
+  </si>
+  <si>
+    <t>Hu Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.59***</t>
+  </si>
+  <si>
+    <t>[ 1.39,  1.84]</t>
+  </si>
+  <si>
+    <t>Hu Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.33***</t>
+  </si>
+  <si>
+    <t>[ 1.18,  1.54]</t>
+  </si>
+  <si>
+    <t>Hu Daily pressure experienced</t>
+  </si>
+  <si>
+    <t>[ 0.69,  1.31]</t>
+  </si>
+  <si>
+    <t>0.616</t>
+  </si>
+  <si>
+    <t>Hu Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.51*</t>
+  </si>
+  <si>
+    <t>[ 1.06,  2.36]</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
+    <t>Hu Daily pushing experienced</t>
+  </si>
+  <si>
+    <t>[ 0.70,  1.29]</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>Hu Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.28*</t>
+  </si>
+  <si>
+    <t>[ 1.03,  1.64]</t>
+  </si>
+  <si>
+    <t>0.986</t>
+  </si>
+  <si>
+    <t>Hu Own actionplan</t>
+  </si>
+  <si>
+    <t>10.34***</t>
+  </si>
+  <si>
+    <t>[ 8.43, 12.73]</t>
+  </si>
+  <si>
+    <t>Hu Partner actionplan</t>
+  </si>
+  <si>
+    <t>1.24*</t>
+  </si>
+  <si>
+    <t>[ 1.01,  1.51]</t>
+  </si>
+  <si>
+    <t>Hu Day</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>[ 0.50,  1.11]</t>
+  </si>
+  <si>
+    <t>0.924</t>
+  </si>
+  <si>
+    <t>Hu Daily weartime</t>
+  </si>
+  <si>
+    <t>Hu Daily support received</t>
+  </si>
+  <si>
+    <t>Hu Daily support provided (partner's view)</t>
+  </si>
+  <si>
+    <t>Hu Is a Weekend</t>
+  </si>
+  <si>
+    <t>1.56***</t>
+  </si>
+  <si>
+    <t>[ 1.29,  1.89]</t>
+  </si>
+  <si>
+    <t>Hu JITAI received</t>
+  </si>
+  <si>
+    <t>0.50***</t>
+  </si>
+  <si>
+    <t>[ 0.38,  0.64]</t>
+  </si>
+  <si>
+    <t>Hu Days post skilled support intervention</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>[ 0.94,  1.73]</t>
+  </si>
+  <si>
+    <t>0.942</t>
+  </si>
+  <si>
+    <t>Hurdle Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Hu Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>[ 0.70,  2.97]</t>
+  </si>
+  <si>
+    <t>Hu Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>[ 0.65,  2.77]</t>
+  </si>
+  <si>
+    <t>Hu Mean pressure experienced</t>
+  </si>
+  <si>
+    <t>0.38*</t>
+  </si>
+  <si>
+    <t>[ 0.17,  0.88]</t>
+  </si>
+  <si>
+    <t>0.988</t>
+  </si>
+  <si>
+    <t>Hu Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>[ 0.23,  1.24]</t>
+  </si>
+  <si>
+    <t>0.930</t>
+  </si>
+  <si>
+    <t>Hu Mean pushing experienced</t>
+  </si>
+  <si>
+    <t>[ 0.39,  3.43]</t>
+  </si>
+  <si>
+    <t>0.602</t>
+  </si>
+  <si>
+    <t>Hu Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.93</t>
+  </si>
+  <si>
+    <t>[ 0.65,  5.75]</t>
+  </si>
+  <si>
+    <t>0.884</t>
+  </si>
+  <si>
+    <t>Hu Mean weartime</t>
+  </si>
+  <si>
+    <t>Hu Mean support received</t>
+  </si>
+  <si>
+    <t>Hu Mean support provided (partner's view)</t>
+  </si>
+  <si>
+    <t>Hu Difference study group 2</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>[ 0.42,  1.45]</t>
+  </si>
+  <si>
+    <t>0.789</t>
+  </si>
+  <si>
+    <t>Hu Difference study group 3</t>
+  </si>
+  <si>
+    <t>[ 0.57,  1.95]</t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>Random Effects</t>
+  </si>
+  <si>
+    <t>sd(Intercept)</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>[0.22, 0.40]</t>
+  </si>
+  <si>
+    <t>[0.23, 0.40]</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>[0.44, 0.74]</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>[0.22, 1.13]</t>
+  </si>
+  <si>
+    <t>[0.63, 1.70]</t>
+  </si>
+  <si>
+    <t>sd(Hurdle Intercept)</t>
+  </si>
+  <si>
+    <t>[0.57, 1.02]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>[0.08, 0.17]</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>[0.01, 0.43]</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>[0.01, 0.52]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>[0.05, 0.13]</t>
+  </si>
+  <si>
+    <t>[0.02, 0.09]</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>[0.01, 0.13]</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>[0.01, 0.53]</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>[0.14, 0.98]</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>[0.00, 0.21]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.25]</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>[0.10, 1.19]</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>[0.14, 2.44]</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>[0.00, 0.17]</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.27]</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>[0.02, 1.55]</t>
+  </si>
+  <si>
+    <t>[0.04, 2.64]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t>[0.01, 0.16]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.14]</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>[0.02, 0.55]</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>[0.02, 0.63]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>[0.01, 0.14]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.15]</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>[0.01, 0.59]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.90]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>[0.02, 0.39]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>[0.02, 0.38]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>[0.01, 0.69]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>[0.01, 0.95]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t>[0.31, 0.97]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>[0.02, 0.56]</t>
+  </si>
+  <si>
+    <t>Additional Parameters</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>[0.65, 0.70]</t>
+  </si>
+  <si>
+    <t>[0.56, 0.59]</t>
+  </si>
+  <si>
+    <t>[0.94, 0.98]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1455,16 +1462,16 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <i/>
     </font>
   </fonts>
   <fills count="2">
@@ -1484,20 +1491,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1513,20 +1528,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1808,64 +1838,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="43.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.40625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.40625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.40625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.40625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.40625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.40625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1915,7 +1965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1959,7 +2009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1985,58 +2035,58 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2085,8 +2135,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2135,8 +2185,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A8" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2185,8 +2235,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A9" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2235,8 +2285,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A10" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2285,8 +2335,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A11" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2335,8 +2385,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A12" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2385,8 +2435,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A13" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -2435,8 +2485,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A14" s="7" t="s">
         <v>139</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2485,8 +2535,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A15" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B15" s="1"/>
@@ -2511,8 +2561,8 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A16" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B16" s="1"/>
@@ -2531,8 +2581,8 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A17" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B17" s="1"/>
@@ -2551,8 +2601,8 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A18" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2601,8 +2651,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A19" s="7" t="s">
         <v>171</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2651,8 +2701,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A20" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2701,58 +2751,58 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A21" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" s="11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A22" s="7" t="s">
         <v>200</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2801,8 +2851,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A23" s="7" t="s">
         <v>214</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2851,8 +2901,8 @@
         <v>226</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A24" s="7" t="s">
         <v>227</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2901,8 +2951,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A25" s="7" t="s">
         <v>242</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2951,8 +3001,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A26" s="7" t="s">
         <v>255</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3001,8 +3051,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A27" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3051,8 +3101,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A28" s="7" t="s">
         <v>281</v>
       </c>
       <c r="B28" s="1"/>
@@ -3077,8 +3127,8 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A29" s="7" t="s">
         <v>283</v>
       </c>
       <c r="B29" s="1"/>
@@ -3097,8 +3147,8 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A30" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B30" s="1"/>
@@ -3117,8 +3167,8 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A31" s="7" t="s">
         <v>285</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -3167,8 +3217,8 @@
         <v>297</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A32" s="7" t="s">
         <v>298</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3217,58 +3267,58 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A33" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="O33" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="P33" s="11" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A34" s="7" t="s">
         <v>313</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -3293,8 +3343,8 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A35" s="7" t="s">
         <v>316</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -3319,8 +3369,8 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A36" s="7" t="s">
         <v>319</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3345,8 +3395,8 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A37" s="7" t="s">
         <v>322</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -3371,8 +3421,8 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A38" s="7" t="s">
         <v>326</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -3397,8 +3447,8 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A39" s="7" t="s">
         <v>329</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -3423,8 +3473,8 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A40" s="7" t="s">
         <v>333</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -3449,8 +3499,8 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A41" s="7" t="s">
         <v>336</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -3475,8 +3525,8 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A42" s="7" t="s">
         <v>339</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3501,8 +3551,8 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A43" s="7" t="s">
         <v>343</v>
       </c>
       <c r="B43" s="1"/>
@@ -3521,8 +3571,8 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A44" s="7" t="s">
         <v>344</v>
       </c>
       <c r="B44" s="1"/>
@@ -3541,8 +3591,8 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A45" s="7" t="s">
         <v>345</v>
       </c>
       <c r="B45" s="1"/>
@@ -3561,8 +3611,8 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A46" s="7" t="s">
         <v>346</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -3587,8 +3637,8 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A47" s="7" t="s">
         <v>349</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -3613,8 +3663,8 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A48" s="7" t="s">
         <v>352</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3639,58 +3689,58 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A49" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="K49" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L49" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M49" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="N49" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="O49" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="P49" s="11" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A50" s="7" t="s">
         <v>357</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3715,8 +3765,8 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A51" s="7" t="s">
         <v>360</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3741,8 +3791,8 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A52" s="7" t="s">
         <v>363</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -3767,8 +3817,8 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A53" s="7" t="s">
         <v>367</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3793,8 +3843,8 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A54" s="7" t="s">
         <v>371</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -3819,8 +3869,8 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A55" s="7" t="s">
         <v>374</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -3845,8 +3895,8 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A56" s="7" t="s">
         <v>378</v>
       </c>
       <c r="B56" s="1"/>
@@ -3865,8 +3915,8 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A57" s="7" t="s">
         <v>379</v>
       </c>
       <c r="B57" s="1"/>
@@ -3885,8 +3935,8 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
     </row>
-    <row r="58">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A58" s="7" t="s">
         <v>380</v>
       </c>
       <c r="B58" s="1"/>
@@ -3905,8 +3955,8 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
     </row>
-    <row r="59">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A59" s="7" t="s">
         <v>381</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -3931,8 +3981,8 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
     </row>
-    <row r="60">
-      <c r="A60" s="8" t="s">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A60" s="7" t="s">
         <v>385</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -3957,58 +4007,58 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
     </row>
-    <row r="61">
-      <c r="A61" s="7" t="s">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A61" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I61" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="K61" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="L61" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="M61" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="N61" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="O61" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="P61" s="1" t="s">
+      <c r="P61" s="11" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="8" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A62" s="7" t="s">
         <v>389</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -4047,8 +4097,8 @@
       </c>
       <c r="P62" s="1"/>
     </row>
-    <row r="63">
-      <c r="A63" s="8" t="s">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A63" s="7" t="s">
         <v>398</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -4071,8 +4121,8 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
     </row>
-    <row r="64">
-      <c r="A64" s="8" t="s">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A64" s="7" t="s">
         <v>400</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -4111,8 +4161,8 @@
       </c>
       <c r="P64" s="1"/>
     </row>
-    <row r="65">
-      <c r="A65" s="8" t="s">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A65" s="7" t="s">
         <v>410</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -4151,8 +4201,8 @@
       </c>
       <c r="P65" s="1"/>
     </row>
-    <row r="66">
-      <c r="A66" s="8" t="s">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A66" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -4191,8 +4241,8 @@
       </c>
       <c r="P66" s="1"/>
     </row>
-    <row r="67">
-      <c r="A67" s="8" t="s">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A67" s="7" t="s">
         <v>429</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -4231,8 +4281,8 @@
       </c>
       <c r="P67" s="1"/>
     </row>
-    <row r="68">
-      <c r="A68" s="8" t="s">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A68" s="7" t="s">
         <v>437</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -4271,8 +4321,8 @@
       </c>
       <c r="P68" s="1"/>
     </row>
-    <row r="69">
-      <c r="A69" s="8" t="s">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A69" s="7" t="s">
         <v>445</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -4311,8 +4361,8 @@
       </c>
       <c r="P69" s="1"/>
     </row>
-    <row r="70">
-      <c r="A70" s="8" t="s">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A70" s="7" t="s">
         <v>452</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -4335,8 +4385,8 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A71" s="7" t="s">
         <v>455</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -4359,8 +4409,8 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
     </row>
-    <row r="72">
-      <c r="A72" s="8" t="s">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A72" s="7" t="s">
         <v>457</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -4383,8 +4433,8 @@
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
     </row>
-    <row r="73">
-      <c r="A73" s="8" t="s">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A73" s="7" t="s">
         <v>460</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -4407,8 +4457,8 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
     </row>
-    <row r="74">
-      <c r="A74" s="8" t="s">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A74" s="7" t="s">
         <v>463</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -4431,8 +4481,8 @@
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
     </row>
-    <row r="75">
-      <c r="A75" s="8" t="s">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A75" s="7" t="s">
         <v>465</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -4455,58 +4505,58 @@
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
     </row>
-    <row r="76">
-      <c r="A76" s="7" t="s">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A76" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H76" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I76" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="J76" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="K76" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="L76" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="M76" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="N76" s="1" t="s">
+      <c r="N76" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="O76" s="1" t="s">
+      <c r="O76" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="P76" s="1" t="s">
+      <c r="P76" s="11" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="9" t="s">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A77" s="8" t="s">
         <v>469</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -4537,60 +4587,60 @@
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
     </row>
-    <row r="78">
-      <c r="A78" s="8"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="8"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="8"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="8"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="8"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="8"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="8"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="8"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="8"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="8"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="8"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="8"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="8"/>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A78" s="7"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A79" s="7"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A80" s="7"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A81" s="7"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A82" s="7"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A83" s="7"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A85" s="7"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A86" s="7"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A88" s="7"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A89" s="7"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A90" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A76:P76"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="A33:P33"/>
+    <mergeCell ref="A49:P49"/>
+    <mergeCell ref="A61:P61"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A33:P33"/>
-    <mergeCell ref="A49:P49"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="A76:P76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Output/AllModels_sensitivityOtherCovariates_12000.xlsx
+++ b/Output/AllModels_sensitivityOtherCovariates_12000.xlsx
@@ -1,910 +1,917 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kueng\DataAnalysis\02TimeAndTiesControl_updatedBRMS\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D8905F-0D61-43AF-97A8-7058A5C28997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mood Gaussian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactance Dichotome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)_hu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI_hu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)_nonzero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI_nonzero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.13,  0.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.44***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[25.53, 38.82]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.33***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[91.00, 131.58]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 3.23,  3.89]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.21,   1.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.39,  1.84]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.97,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.99,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.04,  0.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.69,   1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.18,  1.54]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.03,  0.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.85,   1.56]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.69,  1.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.82,  1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.89,   1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.14,  0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.01,   4.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.06,  2.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.87,  1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.92,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.15,  0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.59,   3.96]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.70,  1.29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.92,  1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.06,  0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.06,   1.82]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.03,  1.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.90,  1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.00,  0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.63,   1.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.34***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 8.43, 12.73]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.24,  1.48]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.02,   1.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.04,  0.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.44,   1.57]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.01,  1.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,  1.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.10,  0.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.47,   1.49]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.50,  1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.81,  1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,   1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.09,  0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.74,   5.96]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily support received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily support provided (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is a Weekend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.29,  1.89]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.11,  1.29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.02,   1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.08,  0.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.38,   1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JITAI received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.38,  0.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.85,  1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,   0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.10*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.19, -0.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.75,   2.61]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Days post skilled support intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.94,  1.73]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.94,  1.20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,   1.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.07,  0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.33,   1.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.70,  2.97]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.79,  1.44]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.81,   1.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.15,  0.93]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.53,   6.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.65,  2.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.75,  1.38]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.71,   1.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.27,  0.81]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48,   6.69]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.17,  0.88]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.82,  1.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,   1.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.80,  0.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.94**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2.61, 174.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.23,  1.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.66,  1.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,   1.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.81,  0.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.27,  23.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.39,  3.43]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.72,  1.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.63,   1.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.68,  0.86]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.15,   7.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.65,  5.75]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,  1.87]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,   1.86]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.51,  1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01,   0.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean support received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean support provided (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference study group 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.42,  1.45]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.82,  1.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,   1.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.65,  0.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.43,   3.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference study group 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.57,  1.95]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.95,  1.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,   1.32]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.10,  0.81]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12,   1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.57, 1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.22, 0.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.44, 0.74]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.63, 1.70]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.08, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.52]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.38]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.14, 0.98]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.69]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.21]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.14, 2.44]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.95]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.27]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 2.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.31, 0.97]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.63]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.56]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.65, 0.70]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.56, 0.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.94, 0.98]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="295">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t>Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t>Mood Gaussian</t>
+  </si>
+  <si>
+    <t>Reactance Dichotome</t>
+  </si>
+  <si>
+    <t>exp(Est.)_hu</t>
+  </si>
+  <si>
+    <t>95% CI_hu</t>
+  </si>
+  <si>
+    <t>exp(Est.)_nonzero</t>
+  </si>
+  <si>
+    <t>95% CI_nonzero</t>
+  </si>
+  <si>
+    <t>exp(Est.)</t>
+  </si>
+  <si>
+    <t>95% CI</t>
+  </si>
+  <si>
+    <t>Est.</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>0.22***</t>
+  </si>
+  <si>
+    <t>[ 0.13,  0.37]</t>
+  </si>
+  <si>
+    <t>31.44***</t>
+  </si>
+  <si>
+    <t>[25.53, 38.82]</t>
+  </si>
+  <si>
+    <t>109.33***</t>
+  </si>
+  <si>
+    <t>[91.00, 131.58]</t>
+  </si>
+  <si>
+    <t>3.57***</t>
+  </si>
+  <si>
+    <t>[ 3.23,  3.89]</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>[0.21,   1.33]</t>
+  </si>
+  <si>
+    <t>Within-Person Effects</t>
+  </si>
+  <si>
+    <t>Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.59***</t>
+  </si>
+  <si>
+    <t>[ 1.39,  1.84]</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>[ 0.97,  1.08]</t>
+  </si>
+  <si>
+    <t>[ 0.99,   1.06]</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>[-0.04,  0.04]</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>[0.69,   1.02]</t>
+  </si>
+  <si>
+    <t>Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.33***</t>
+  </si>
+  <si>
+    <t>[ 1.18,  1.54]</t>
+  </si>
+  <si>
+    <t>[ 0.98,  1.08]</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>[ 0.98,   1.05]</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>[-0.03,  0.06]</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>[0.85,   1.56]</t>
+  </si>
+  <si>
+    <t>Daily pressure experienced</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>[ 0.69,  1.31]</t>
+  </si>
+  <si>
+    <t>0.91*</t>
+  </si>
+  <si>
+    <t>[ 0.82,  1.00]</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>[ 0.89,   1.02]</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>[-0.14,  0.07]</t>
+  </si>
+  <si>
+    <t>1.96*</t>
+  </si>
+  <si>
+    <t>[1.01,   4.39]</t>
+  </si>
+  <si>
+    <t>Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.51*</t>
+  </si>
+  <si>
+    <t>[ 1.06,  2.36]</t>
+  </si>
+  <si>
+    <t>[ 0.87,  1.03]</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>[ 0.92,   1.05]</t>
+  </si>
+  <si>
+    <t>[-0.15,  0.08]</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>[0.59,   3.96]</t>
+  </si>
+  <si>
+    <t>Daily pushing experienced</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>[ 0.70,  1.29]</t>
+  </si>
+  <si>
+    <t>[ 0.92,  1.04]</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>[ 0.96,   1.06]</t>
+  </si>
+  <si>
+    <t>[-0.06,  0.07]</t>
+  </si>
+  <si>
+    <t>1.37*</t>
+  </si>
+  <si>
+    <t>[1.06,   1.82]</t>
+  </si>
+  <si>
+    <t>Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.28*</t>
+  </si>
+  <si>
+    <t>[ 1.03,  1.64]</t>
+  </si>
+  <si>
+    <t>[ 0.90,  1.01]</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>[ 0.96,   1.04]</t>
+  </si>
+  <si>
+    <t>0.07*</t>
+  </si>
+  <si>
+    <t>[ 0.00,  0.13]</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>[0.63,   1.37]</t>
+  </si>
+  <si>
+    <t>Own actionplan</t>
+  </si>
+  <si>
+    <t>10.34***</t>
+  </si>
+  <si>
+    <t>[ 8.43, 12.73]</t>
+  </si>
+  <si>
+    <t>1.36***</t>
+  </si>
+  <si>
+    <t>[ 1.24,  1.48]</t>
+  </si>
+  <si>
+    <t>1.07**</t>
+  </si>
+  <si>
+    <t>[ 1.02,   1.13]</t>
+  </si>
+  <si>
+    <t>0.12**</t>
+  </si>
+  <si>
+    <t>[ 0.04,  0.19]</t>
+  </si>
+  <si>
+    <t>[0.44,   1.57]</t>
+  </si>
+  <si>
+    <t>Partner actionplan</t>
+  </si>
+  <si>
+    <t>1.24*</t>
+  </si>
+  <si>
+    <t>[ 1.01,  1.51]</t>
+  </si>
+  <si>
+    <t>1.09*</t>
+  </si>
+  <si>
+    <t>[ 1.00,  1.19]</t>
+  </si>
+  <si>
+    <t>1.05*</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.11]</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>[-0.10,  0.06]</t>
+  </si>
+  <si>
+    <t>[0.47,   1.49]</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>[ 0.50,  1.11]</t>
+  </si>
+  <si>
+    <t>[ 0.81,  1.12]</t>
+  </si>
+  <si>
+    <t>[ 0.86,   1.03]</t>
+  </si>
+  <si>
+    <t>0.24**</t>
+  </si>
+  <si>
+    <t>[ 0.09,  0.39]</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>[0.74,   5.96]</t>
+  </si>
+  <si>
+    <t>Daily weartime</t>
+  </si>
+  <si>
+    <t>1.00***</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.00]</t>
+  </si>
+  <si>
+    <t>Daily support received</t>
+  </si>
+  <si>
+    <t>Daily support provided (partner's view)</t>
+  </si>
+  <si>
+    <t>Is a Weekend</t>
+  </si>
+  <si>
+    <t>1.56***</t>
+  </si>
+  <si>
+    <t>[ 1.29,  1.89]</t>
+  </si>
+  <si>
+    <t>1.20***</t>
+  </si>
+  <si>
+    <t>[ 1.11,  1.29]</t>
+  </si>
+  <si>
+    <t>[ 1.02,   1.12]</t>
+  </si>
+  <si>
+    <t>0.15***</t>
+  </si>
+  <si>
+    <t>[ 0.08,  0.22]</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>[0.38,   1.02]</t>
+  </si>
+  <si>
+    <t>JITAI received</t>
+  </si>
+  <si>
+    <t>0.50***</t>
+  </si>
+  <si>
+    <t>[ 0.38,  0.64]</t>
+  </si>
+  <si>
+    <t>[ 0.85,  1.04]</t>
+  </si>
+  <si>
+    <t>0.93*</t>
+  </si>
+  <si>
+    <t>[ 0.88,   0.99]</t>
+  </si>
+  <si>
+    <t>-0.10*</t>
+  </si>
+  <si>
+    <t>[-0.19, -0.01]</t>
+  </si>
+  <si>
+    <t>[0.75,   2.61]</t>
+  </si>
+  <si>
+    <t>Days post skilled support intervention</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>[ 0.94,  1.73]</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>[ 0.94,  1.20]</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>[ 0.98,   1.13]</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>[-0.07,  0.15]</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>[0.33,   1.47]</t>
+  </si>
+  <si>
+    <t>Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>[ 0.70,  2.97]</t>
+  </si>
+  <si>
+    <t>[ 0.79,  1.44]</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>[ 0.81,   1.47]</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>[-0.15,  0.93]</t>
+  </si>
+  <si>
+    <t>1.71</t>
+  </si>
+  <si>
+    <t>[0.53,   6.01]</t>
+  </si>
+  <si>
+    <t>Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>[ 0.65,  2.77]</t>
+  </si>
+  <si>
+    <t>[ 0.75,  1.38]</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>[ 0.71,   1.31]</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>[-0.27,  0.81]</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>[0.48,   6.69]</t>
+  </si>
+  <si>
+    <t>Mean pressure experienced</t>
+  </si>
+  <si>
+    <t>0.38*</t>
+  </si>
+  <si>
+    <t>[ 0.17,  0.88]</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>[ 0.82,  1.64]</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>[ 0.74,   1.35]</t>
+  </si>
+  <si>
+    <t>-0.27</t>
+  </si>
+  <si>
+    <t>[-0.80,  0.25]</t>
+  </si>
+  <si>
+    <t>18.94**</t>
+  </si>
+  <si>
+    <t>[2.61, 174.02]</t>
+  </si>
+  <si>
+    <t>Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>[ 0.23,  1.24]</t>
+  </si>
+  <si>
+    <t>[ 0.66,  1.34]</t>
+  </si>
+  <si>
+    <t>[ 0.74,   1.33]</t>
+  </si>
+  <si>
+    <t>-0.28</t>
+  </si>
+  <si>
+    <t>[-0.81,  0.25]</t>
+  </si>
+  <si>
+    <t>2.76</t>
+  </si>
+  <si>
+    <t>[0.27,  23.37]</t>
+  </si>
+  <si>
+    <t>Mean pushing experienced</t>
+  </si>
+  <si>
+    <t>[ 0.39,  3.43]</t>
+  </si>
+  <si>
+    <t>[ 0.72,  1.78]</t>
+  </si>
+  <si>
+    <t>[ 0.63,   1.46]</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>[-0.68,  0.86]</t>
+  </si>
+  <si>
+    <t>[0.15,   7.39]</t>
+  </si>
+  <si>
+    <t>Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.93</t>
+  </si>
+  <si>
+    <t>[ 0.65,  5.75]</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>[ 0.74,  1.87]</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>[ 0.80,   1.86]</t>
+  </si>
+  <si>
+    <t>[-0.51,  1.02]</t>
+  </si>
+  <si>
+    <t>0.08*</t>
+  </si>
+  <si>
+    <t>[0.01,   0.62]</t>
+  </si>
+  <si>
+    <t>Mean weartime</t>
+  </si>
+  <si>
+    <t>Mean support received</t>
+  </si>
+  <si>
+    <t>Mean support provided (partner's view)</t>
+  </si>
+  <si>
+    <t>Difference study group 2</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>[ 0.42,  1.45]</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>[ 0.82,  1.41]</t>
+  </si>
+  <si>
+    <t>[ 0.73,   1.19]</t>
+  </si>
+  <si>
+    <t>-0.21</t>
+  </si>
+  <si>
+    <t>[-0.65,  0.24]</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>[0.43,   3.25]</t>
+  </si>
+  <si>
+    <t>Difference study group 3</t>
+  </si>
+  <si>
+    <t>[ 0.57,  1.95]</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>[ 0.95,  1.59]</t>
+  </si>
+  <si>
+    <t>[ 0.80,   1.32]</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>[-0.10,  0.81]</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>[0.12,   1.11]</t>
+  </si>
+  <si>
+    <t>Random Effects</t>
+  </si>
+  <si>
+    <t>sd(Intercept)</t>
+  </si>
+  <si>
+    <t>[0.57, 1.02]</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>[0.22, 0.40]</t>
+  </si>
+  <si>
+    <t>[0.23, 0.40]</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>[0.44, 0.74]</t>
+  </si>
+  <si>
+    <t>[0.63, 1.70]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>[0.02, 0.39]</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>[0.08, 0.17]</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>[0.01, 0.52]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>[0.02, 0.38]</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>[0.05, 0.13]</t>
+  </si>
+  <si>
+    <t>[0.02, 0.09]</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>[0.01, 0.13]</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>[0.14, 0.98]</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>[0.01, 0.69]</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>[0.00, 0.21]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.25]</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>[0.14, 2.44]</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>[0.01, 0.95]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.17]</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.27]</t>
+  </si>
+  <si>
+    <t>[0.04, 2.64]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t>[0.31, 0.97]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.16]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.14]</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>[0.02, 0.63]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>[0.02, 0.56]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.14]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.15]</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>[0.01, 0.90]</t>
+  </si>
+  <si>
+    <t>Additional Parameters</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>[0.65, 0.70]</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>[0.56, 0.59]</t>
+  </si>
+  <si>
+    <t>[0.94, 0.98]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -918,16 +925,16 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <i/>
     </font>
   </fonts>
   <fills count="2">
@@ -947,20 +954,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -976,20 +991,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1271,49 +1301,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.76953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.76953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.2265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.2265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.2265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1383,43 +1428,43 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1453,8 +1498,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1488,8 +1533,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1523,8 +1568,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A8" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1558,8 +1603,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A9" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1593,8 +1638,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A10" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1628,8 +1673,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A11" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1663,8 +1708,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A12" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1698,8 +1743,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A13" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1733,8 +1778,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A14" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B14" s="1"/>
@@ -1752,8 +1797,8 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A15" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B15" s="1"/>
@@ -1767,8 +1812,8 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A16" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B16" s="1"/>
@@ -1782,8 +1827,8 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A17" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1817,8 +1862,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A18" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1852,8 +1897,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A19" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1887,43 +1932,43 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A20" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A21" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1957,8 +2002,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A22" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1992,8 +2037,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A23" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2027,8 +2072,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A24" s="7" t="s">
         <v>180</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2062,8 +2107,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A25" s="7" t="s">
         <v>189</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2097,8 +2142,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A26" s="7" t="s">
         <v>196</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2132,8 +2177,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A27" s="7" t="s">
         <v>206</v>
       </c>
       <c r="B27" s="1"/>
@@ -2151,8 +2196,8 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A28" s="7" t="s">
         <v>207</v>
       </c>
       <c r="B28" s="1"/>
@@ -2166,8 +2211,8 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A29" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B29" s="1"/>
@@ -2181,8 +2226,8 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A30" s="7" t="s">
         <v>209</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2216,8 +2261,8 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A31" s="7" t="s">
         <v>219</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2251,43 +2296,43 @@
         <v>227</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A32" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A33" s="7" t="s">
         <v>229</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2321,8 +2366,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A34" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2356,8 +2401,8 @@
         <v>246</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A35" s="7" t="s">
         <v>247</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2391,8 +2436,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A36" s="7" t="s">
         <v>256</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2426,8 +2471,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A37" s="7" t="s">
         <v>265</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2461,8 +2506,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A38" s="7" t="s">
         <v>273</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2496,8 +2541,8 @@
         <v>279</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A39" s="7" t="s">
         <v>280</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2531,43 +2576,43 @@
         <v>287</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A40" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" s="11" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A41" s="8" t="s">
         <v>289</v>
       </c>
       <c r="B41" s="4"/>
@@ -2593,36 +2638,36 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42">
-      <c r="A42" s="8"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="8"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="8"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="8"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="8"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="8"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A47" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="A40:K40"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="A40:K40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Output/AllModels_sensitivityOtherCovariates_12000.xlsx
+++ b/Output/AllModels_sensitivityOtherCovariates_12000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kueng\DataAnalysis\02TimeAndTiesControl_updatedBRMS\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D8905F-0D61-43AF-97A8-7058A5C28997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CDB94F-39F0-42CE-A5BE-5101DF5C9A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="292">
   <si>
     <t/>
   </si>
@@ -64,34 +64,34 @@
     <t>Intercept</t>
   </si>
   <si>
-    <t>0.22***</t>
-  </si>
-  <si>
-    <t>[ 0.13,  0.37]</t>
-  </si>
-  <si>
-    <t>31.44***</t>
-  </si>
-  <si>
-    <t>[25.53, 38.82]</t>
-  </si>
-  <si>
-    <t>109.33***</t>
-  </si>
-  <si>
-    <t>[91.00, 131.58]</t>
+    <t>0.23***</t>
+  </si>
+  <si>
+    <t>[ 0.14,  0.38]</t>
+  </si>
+  <si>
+    <t>31.41***</t>
+  </si>
+  <si>
+    <t>[25.57, 38.55]</t>
+  </si>
+  <si>
+    <t>109.65***</t>
+  </si>
+  <si>
+    <t>[91.57, 131.92]</t>
   </si>
   <si>
     <t>3.57***</t>
   </si>
   <si>
-    <t>[ 3.23,  3.89]</t>
+    <t>[ 3.24,  3.90]</t>
   </si>
   <si>
     <t>0.54</t>
   </si>
   <si>
-    <t>[0.21,   1.33]</t>
+    <t>[0.21,   1.36]</t>
   </si>
   <si>
     <t>Within-Person Effects</t>
@@ -100,10 +100,10 @@
     <t>Daily persuasion experienced</t>
   </si>
   <si>
-    <t>1.59***</t>
-  </si>
-  <si>
-    <t>[ 1.39,  1.84]</t>
+    <t>1.58***</t>
+  </si>
+  <si>
+    <t>[ 1.39,  1.83]</t>
   </si>
   <si>
     <t>1.03</t>
@@ -133,7 +133,7 @@
     <t>1.33***</t>
   </si>
   <si>
-    <t>[ 1.18,  1.54]</t>
+    <t>[ 1.18,  1.52]</t>
   </si>
   <si>
     <t>[ 0.98,  1.08]</t>
@@ -163,10 +163,10 @@
     <t>0.96</t>
   </si>
   <si>
-    <t>[ 0.69,  1.31]</t>
-  </si>
-  <si>
-    <t>0.91*</t>
+    <t>[ 0.70,  1.31]</t>
+  </si>
+  <si>
+    <t>0.91</t>
   </si>
   <si>
     <t>[ 0.82,  1.00]</t>
@@ -175,7 +175,7 @@
     <t>0.95</t>
   </si>
   <si>
-    <t>[ 0.89,   1.02]</t>
+    <t>[ 0.88,   1.01]</t>
   </si>
   <si>
     <t>-0.03</t>
@@ -184,10 +184,10 @@
     <t>[-0.14,  0.07]</t>
   </si>
   <si>
-    <t>1.96*</t>
-  </si>
-  <si>
-    <t>[1.01,   4.39]</t>
+    <t>1.95*</t>
+  </si>
+  <si>
+    <t>[1.01,   4.45]</t>
   </si>
   <si>
     <t>Daily pressure utilized (partner's view)</t>
@@ -196,7 +196,7 @@
     <t>1.51*</t>
   </si>
   <si>
-    <t>[ 1.06,  2.36]</t>
+    <t>[ 1.05,  2.38]</t>
   </si>
   <si>
     <t>[ 0.87,  1.03]</t>
@@ -214,7 +214,7 @@
     <t>1.41</t>
   </si>
   <si>
-    <t>[0.59,   3.96]</t>
+    <t>[0.58,   4.27]</t>
   </si>
   <si>
     <t>Daily pushing experienced</t>
@@ -226,7 +226,7 @@
     <t>[ 0.70,  1.29]</t>
   </si>
   <si>
-    <t>[ 0.92,  1.04]</t>
+    <t>[ 0.92,  1.05]</t>
   </si>
   <si>
     <t>1.01</t>
@@ -250,10 +250,10 @@
     <t>1.28*</t>
   </si>
   <si>
-    <t>[ 1.03,  1.64]</t>
-  </si>
-  <si>
-    <t>[ 0.90,  1.01]</t>
+    <t>[ 1.04,  1.62]</t>
+  </si>
+  <si>
+    <t>[ 0.90,  1.02]</t>
   </si>
   <si>
     <t>1.00</t>
@@ -262,7 +262,7 @@
     <t>[ 0.96,   1.04]</t>
   </si>
   <si>
-    <t>0.07*</t>
+    <t>0.07</t>
   </si>
   <si>
     <t>[ 0.00,  0.13]</t>
@@ -271,22 +271,22 @@
     <t>0.93</t>
   </si>
   <si>
-    <t>[0.63,   1.37]</t>
+    <t>[0.62,   1.38]</t>
   </si>
   <si>
     <t>Own actionplan</t>
   </si>
   <si>
-    <t>10.34***</t>
-  </si>
-  <si>
-    <t>[ 8.43, 12.73]</t>
-  </si>
-  <si>
-    <t>1.36***</t>
-  </si>
-  <si>
-    <t>[ 1.24,  1.48]</t>
+    <t>10.31***</t>
+  </si>
+  <si>
+    <t>[ 8.41, 12.70]</t>
+  </si>
+  <si>
+    <t>1.35***</t>
+  </si>
+  <si>
+    <t>[ 1.23,  1.48]</t>
   </si>
   <si>
     <t>1.07**</t>
@@ -301,16 +301,19 @@
     <t>[ 0.04,  0.19]</t>
   </si>
   <si>
-    <t>[0.44,   1.57]</t>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>[0.44,   1.58]</t>
   </si>
   <si>
     <t>Partner actionplan</t>
   </si>
   <si>
-    <t>1.24*</t>
-  </si>
-  <si>
-    <t>[ 1.01,  1.51]</t>
+    <t>1.23*</t>
+  </si>
+  <si>
+    <t>[ 1.01,  1.50]</t>
   </si>
   <si>
     <t>1.09*</t>
@@ -331,7 +334,7 @@
     <t>[-0.10,  0.06]</t>
   </si>
   <si>
-    <t>[0.47,   1.49]</t>
+    <t>[0.47,   1.50]</t>
   </si>
   <si>
     <t>Day</t>
@@ -340,10 +343,10 @@
     <t>0.75</t>
   </si>
   <si>
-    <t>[ 0.50,  1.11]</t>
-  </si>
-  <si>
-    <t>[ 0.81,  1.12]</t>
+    <t>[ 0.50,  1.12]</t>
+  </si>
+  <si>
+    <t>[ 0.80,  1.12]</t>
   </si>
   <si>
     <t>[ 0.86,   1.03]</t>
@@ -355,10 +358,10 @@
     <t>[ 0.09,  0.39]</t>
   </si>
   <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>[0.74,   5.96]</t>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>[0.75,   6.00]</t>
   </si>
   <si>
     <t>Daily weartime</t>
@@ -382,7 +385,7 @@
     <t>1.56***</t>
   </si>
   <si>
-    <t>[ 1.29,  1.89]</t>
+    <t>[ 1.28,  1.89]</t>
   </si>
   <si>
     <t>1.20***</t>
@@ -403,7 +406,7 @@
     <t>0.62</t>
   </si>
   <si>
-    <t>[0.38,   1.02]</t>
+    <t>[0.37,   1.03]</t>
   </si>
   <si>
     <t>JITAI received</t>
@@ -412,7 +415,7 @@
     <t>0.50***</t>
   </si>
   <si>
-    <t>[ 0.38,  0.64]</t>
+    <t>[ 0.39,  0.64]</t>
   </si>
   <si>
     <t>[ 0.85,  1.04]</t>
@@ -430,16 +433,16 @@
     <t>[-0.19, -0.01]</t>
   </si>
   <si>
-    <t>[0.75,   2.61]</t>
+    <t>[0.76,   2.62]</t>
   </si>
   <si>
     <t>Days post skilled support intervention</t>
   </si>
   <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>[ 0.94,  1.73]</t>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>[ 0.93,  1.73]</t>
   </si>
   <si>
     <t>1.06</t>
@@ -463,7 +466,7 @@
     <t>0.71</t>
   </si>
   <si>
-    <t>[0.33,   1.47]</t>
+    <t>[0.33,   1.49]</t>
   </si>
   <si>
     <t>Between-Person Effects</t>
@@ -472,61 +475,61 @@
     <t>Mean persuasion experienced</t>
   </si>
   <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>[ 0.70,  2.97]</t>
-  </si>
-  <si>
-    <t>[ 0.79,  1.44]</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>[ 0.81,   1.47]</t>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>[ 0.71,  3.10]</t>
+  </si>
+  <si>
+    <t>[ 0.76,  1.39]</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>[ 0.81,   1.46]</t>
   </si>
   <si>
     <t>0.38</t>
   </si>
   <si>
-    <t>[-0.15,  0.93]</t>
+    <t>[-0.16,  0.92]</t>
   </si>
   <si>
     <t>1.71</t>
   </si>
   <si>
-    <t>[0.53,   6.01]</t>
+    <t>[0.53,   5.88]</t>
   </si>
   <si>
     <t>Mean persuasion utilized (partner's view)</t>
   </si>
   <si>
-    <t>1.35</t>
-  </si>
-  <si>
-    <t>[ 0.65,  2.77]</t>
-  </si>
-  <si>
-    <t>[ 0.75,  1.38]</t>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>[ 0.67,  2.88]</t>
+  </si>
+  <si>
+    <t>[ 0.73,  1.32]</t>
   </si>
   <si>
     <t>0.97</t>
   </si>
   <si>
-    <t>[ 0.71,   1.31]</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>[-0.27,  0.81]</t>
+    <t>[ 0.72,   1.31]</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>[-0.28,  0.81]</t>
   </si>
   <si>
     <t>1.72</t>
   </si>
   <si>
-    <t>[0.48,   6.69]</t>
+    <t>[0.48,   6.71]</t>
   </si>
   <si>
     <t>Mean pressure experienced</t>
@@ -535,16 +538,13 @@
     <t>0.38*</t>
   </si>
   <si>
-    <t>[ 0.17,  0.88]</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>[ 0.82,  1.64]</t>
-  </si>
-  <si>
-    <t>0.99</t>
+    <t>[ 0.16,  0.88]</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>[ 0.83,  1.65]</t>
   </si>
   <si>
     <t>[ 0.74,   1.35]</t>
@@ -556,10 +556,10 @@
     <t>[-0.80,  0.25]</t>
   </si>
   <si>
-    <t>18.94**</t>
-  </si>
-  <si>
-    <t>[2.61, 174.02]</t>
+    <t>18.86**</t>
+  </si>
+  <si>
+    <t>[2.66, 172.23]</t>
   </si>
   <si>
     <t>Mean pressure utilized (partner's view)</t>
@@ -568,76 +568,79 @@
     <t>0.53</t>
   </si>
   <si>
-    <t>[ 0.23,  1.24]</t>
-  </si>
-  <si>
-    <t>[ 0.66,  1.34]</t>
-  </si>
-  <si>
-    <t>[ 0.74,   1.33]</t>
+    <t>[ 0.22,  1.22]</t>
+  </si>
+  <si>
+    <t>[ 0.67,  1.34]</t>
+  </si>
+  <si>
+    <t>[ 0.75,   1.33]</t>
   </si>
   <si>
     <t>-0.28</t>
   </si>
   <si>
-    <t>[-0.81,  0.25]</t>
-  </si>
-  <si>
-    <t>2.76</t>
-  </si>
-  <si>
-    <t>[0.27,  23.37]</t>
+    <t>[-0.81,  0.24]</t>
+  </si>
+  <si>
+    <t>2.74</t>
+  </si>
+  <si>
+    <t>[0.27,  23.42]</t>
   </si>
   <si>
     <t>Mean pushing experienced</t>
   </si>
   <si>
-    <t>[ 0.39,  3.43]</t>
-  </si>
-  <si>
-    <t>[ 0.72,  1.78]</t>
-  </si>
-  <si>
-    <t>[ 0.63,   1.46]</t>
-  </si>
-  <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>[-0.68,  0.86]</t>
-  </si>
-  <si>
-    <t>[0.15,   7.39]</t>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>[ 0.36,  3.27]</t>
+  </si>
+  <si>
+    <t>[ 0.75,  1.83]</t>
+  </si>
+  <si>
+    <t>[ 0.63,   1.47]</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>[-0.66,  0.87]</t>
+  </si>
+  <si>
+    <t>[0.15,   7.43]</t>
   </si>
   <si>
     <t>Mean pushing utilized (partner's view)</t>
   </si>
   <si>
-    <t>1.93</t>
-  </si>
-  <si>
-    <t>[ 0.65,  5.75]</t>
-  </si>
-  <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>[ 0.74,  1.87]</t>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>[ 0.61,  5.49]</t>
   </si>
   <si>
     <t>1.22</t>
   </si>
   <si>
+    <t>[ 0.78,  1.92]</t>
+  </si>
+  <si>
     <t>[ 0.80,   1.86]</t>
   </si>
   <si>
-    <t>[-0.51,  1.02]</t>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>[-0.50,  1.03]</t>
   </si>
   <si>
     <t>0.08*</t>
   </si>
   <si>
-    <t>[0.01,   0.62]</t>
+    <t>[0.01,   0.63]</t>
   </si>
   <si>
     <t>Mean weartime</t>
@@ -652,58 +655,52 @@
     <t>Difference study group 2</t>
   </si>
   <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>[ 0.42,  1.45]</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>[ 0.82,  1.41]</t>
-  </si>
-  <si>
-    <t>[ 0.73,   1.19]</t>
-  </si>
-  <si>
-    <t>-0.21</t>
-  </si>
-  <si>
-    <t>[-0.65,  0.24]</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>[0.43,   3.25]</t>
+    <t>[ 0.39,  1.46]</t>
+  </si>
+  <si>
+    <t>[ 0.83,  1.39]</t>
+  </si>
+  <si>
+    <t>[ 0.72,   1.18]</t>
+  </si>
+  <si>
+    <t>-0.22</t>
+  </si>
+  <si>
+    <t>[-0.67,  0.23]</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>[0.42,   3.30]</t>
   </si>
   <si>
     <t>Difference study group 3</t>
   </si>
   <si>
-    <t>[ 0.57,  1.95]</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>[ 0.95,  1.59]</t>
-  </si>
-  <si>
-    <t>[ 0.80,   1.32]</t>
+    <t>[ 0.56,  1.99]</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>[ 0.97,  1.59]</t>
+  </si>
+  <si>
+    <t>[ 0.79,   1.31]</t>
   </si>
   <si>
     <t>0.35</t>
   </si>
   <si>
-    <t>[-0.10,  0.81]</t>
+    <t>[-0.11,  0.80]</t>
   </si>
   <si>
     <t>0.37</t>
   </si>
   <si>
-    <t>[0.12,   1.11]</t>
+    <t>[0.13,   1.12]</t>
   </si>
   <si>
     <t>Random Effects</t>
@@ -712,15 +709,21 @@
     <t>sd(Intercept)</t>
   </si>
   <si>
-    <t>[0.57, 1.02]</t>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>[0.58, 1.02]</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>[0.22, 0.39]</t>
   </si>
   <si>
     <t>0.30</t>
   </si>
   <si>
-    <t>[0.22, 0.40]</t>
-  </si>
-  <si>
     <t>[0.23, 0.40]</t>
   </si>
   <si>
@@ -730,160 +733,148 @@
     <t>[0.44, 0.74]</t>
   </si>
   <si>
-    <t>[0.63, 1.70]</t>
+    <t>[0.61, 1.70]</t>
   </si>
   <si>
     <t>sd(Daily persuasion experienced)</t>
   </si>
   <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>[0.02, 0.38]</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>[0.08, 0.17]</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>[0.01, 0.52]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>[0.01, 0.35]</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>[0.04, 0.13]</t>
+  </si>
+  <si>
+    <t>[0.02, 0.09]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.13]</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>[0.15, 0.98]</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure experienced)</t>
+  </si>
+  <si>
     <t>0.20</t>
   </si>
   <si>
-    <t>[0.02, 0.39]</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>[0.08, 0.17]</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>[0.01, 0.52]</t>
-  </si>
-  <si>
-    <t>sd(Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t>[0.02, 0.38]</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>[0.05, 0.13]</t>
-  </si>
-  <si>
-    <t>[0.02, 0.09]</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>[0.01, 0.13]</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>[0.14, 0.98]</t>
-  </si>
-  <si>
-    <t>sd(Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>[0.01, 0.69]</t>
+    <t>[0.01, 0.74]</t>
   </si>
   <si>
     <t>0.06</t>
   </si>
   <si>
-    <t>[0.00, 0.21]</t>
+    <t>[0.00, 0.22]</t>
   </si>
   <si>
     <t>[0.00, 0.13]</t>
   </si>
   <si>
-    <t>[0.00, 0.25]</t>
-  </si>
-  <si>
-    <t>1.09</t>
-  </si>
-  <si>
-    <t>[0.14, 2.44]</t>
+    <t>[0.00, 0.24]</t>
+  </si>
+  <si>
+    <t>[0.12, 2.47]</t>
   </si>
   <si>
     <t>sd(Daily pressure utilized (partner's view))</t>
   </si>
   <si>
+    <t>[0.01, 0.99]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.17]</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.28]</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>[0.03, 2.64]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>[0.31, 0.99]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.16]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.14]</t>
+  </si>
+  <si>
+    <t>[0.02, 0.64]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.15]</t>
+  </si>
+  <si>
     <t>0.24</t>
   </si>
   <si>
-    <t>[0.01, 0.95]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.17]</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.27]</t>
-  </si>
-  <si>
-    <t>[0.04, 2.64]</t>
-  </si>
-  <si>
-    <t>sd(Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t>[0.31, 0.97]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.16]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.14]</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>[0.02, 0.63]</t>
-  </si>
-  <si>
-    <t>sd(Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>[0.02, 0.56]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.14]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.09]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.15]</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>[0.01, 0.90]</t>
+    <t>[0.01, 0.89]</t>
   </si>
   <si>
     <t>Additional Parameters</t>
@@ -1304,26 +1295,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.76953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.76953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.2265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.2265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.2265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.06640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1428,7 +1419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
@@ -1463,7 +1454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -1498,7 +1489,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
@@ -1533,7 +1524,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
@@ -1543,7 +1534,7 @@
       <c r="C7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1568,7 +1559,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>56</v>
       </c>
@@ -1603,7 +1594,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>65</v>
       </c>
@@ -1638,7 +1629,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>74</v>
       </c>
@@ -1660,7 +1651,7 @@
       <c r="G10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1673,7 +1664,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>84</v>
       </c>
@@ -1702,104 +1693,104 @@
         <v>92</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1812,9 +1803,9 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1827,234 +1818,234 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>89</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>175</v>
@@ -2072,7 +2063,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>180</v>
       </c>
@@ -2083,13 +2074,13 @@
         <v>182</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>183</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>184</v>
@@ -2107,79 +2098,79 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
         <v>189</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>202</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2189,16 +2180,16 @@
         <v>78</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2211,9 +2202,9 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2226,117 +2217,117 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>210</v>
+        <v>106</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>82</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" s="7" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A31" s="7" t="s">
+      <c r="B31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="K31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" s="10" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A32" s="10" t="s">
+      <c r="B32" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A33" s="7" t="s">
+      <c r="B33" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>230</v>
@@ -2348,312 +2339,312 @@
         <v>232</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A35" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>265</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="7" t="s">
         <v>273</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>278</v>
+        <v>166</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
         <v>280</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="H39" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I39" s="1" t="s">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="B40" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A41" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A40" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A41" s="8" t="s">
-        <v>289</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>46</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="7"/>
     </row>
   </sheetData>

--- a/Output/AllModels_sensitivityOtherCovariates_12000.xlsx
+++ b/Output/AllModels_sensitivityOtherCovariates_12000.xlsx
@@ -374,7 +374,7 @@
     <t xml:space="preserve">[0.46,   1.52]</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily weartime</t>
+    <t xml:space="preserve">Daily wear time</t>
   </si>
   <si>
     <t xml:space="preserve">1.00***</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">[0.00,   0.64]</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean weartime</t>
+    <t xml:space="preserve">Mean wear time</t>
   </si>
   <si>
     <t xml:space="preserve">Mean individual's received support</t>
